--- a/Saved_file/EM001/2026_04/sap_data.xlsx
+++ b/Saved_file/EM001/2026_04/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST2821</t>
+          <t>CUST9436</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45497050</v>
+        <v>56389205</v>
       </c>
       <c r="E2" t="n">
-        <v>15107000</v>
+        <v>15733186</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST2462</t>
+          <t>CUST8486</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52969417</v>
+        <v>49134869</v>
       </c>
       <c r="E3" t="n">
-        <v>17847511</v>
+        <v>16483831</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST7289</t>
+          <t>CUST6070</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54253244</v>
+        <v>44401249</v>
       </c>
       <c r="E4" t="n">
-        <v>14107912</v>
+        <v>13294349</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST5704</t>
+          <t>CUST9260</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50454776</v>
+        <v>47418849</v>
       </c>
       <c r="E5" t="n">
-        <v>17609882</v>
+        <v>13686335</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST1659</t>
+          <t>CUST9207</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58651831</v>
+        <v>51457817</v>
       </c>
       <c r="E6" t="n">
-        <v>15239250</v>
+        <v>16654275</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST2775</t>
+          <t>CUST3675</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56192072</v>
+        <v>50383242</v>
       </c>
       <c r="E7" t="n">
-        <v>17437856</v>
+        <v>15637035</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST3423</t>
+          <t>CUST6657</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56721105</v>
+        <v>38942713</v>
       </c>
       <c r="E8" t="n">
-        <v>18681560</v>
+        <v>12847806</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST7552</t>
+          <t>CUST6141</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41052907</v>
+        <v>53077334</v>
       </c>
       <c r="E9" t="n">
-        <v>12653618</v>
+        <v>16037429</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST6193</t>
+          <t>CUST8349</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36098359</v>
+        <v>39754397</v>
       </c>
       <c r="E10" t="n">
-        <v>9640555</v>
+        <v>10503566</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST4235</t>
+          <t>CUST9436</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58867100</v>
+        <v>47397597</v>
       </c>
       <c r="E11" t="n">
-        <v>18146633</v>
+        <v>13882647</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST4658</t>
+          <t>CUST8478</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46539434</v>
+        <v>33814775</v>
       </c>
       <c r="E12" t="n">
-        <v>15203009</v>
+        <v>11611084</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7552</t>
+          <t>CUST9234</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52187053</v>
+        <v>43648637</v>
       </c>
       <c r="E13" t="n">
-        <v>13614260</v>
+        <v>13113336</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST8151</t>
+          <t>CUST1533</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55705147</v>
+        <v>53363138</v>
       </c>
       <c r="E14" t="n">
-        <v>17886623</v>
+        <v>17599875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST2462</t>
+          <t>CUST2321</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50900735</v>
+        <v>40318083</v>
       </c>
       <c r="E15" t="n">
-        <v>13157398</v>
+        <v>11433610</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST2821</t>
+          <t>CUST7070</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58183637</v>
+        <v>59223640</v>
       </c>
       <c r="E16" t="n">
-        <v>20312910</v>
+        <v>18124711</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST9657</t>
+          <t>CUST3422</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47832311</v>
+        <v>56255097</v>
       </c>
       <c r="E17" t="n">
-        <v>16739189</v>
+        <v>18952529</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST1659</t>
+          <t>CUST7139</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34946368</v>
+        <v>32376274</v>
       </c>
       <c r="E18" t="n">
-        <v>11678656</v>
+        <v>10938135</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST9001</t>
+          <t>CUST7434</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39120987</v>
+        <v>43505273</v>
       </c>
       <c r="E19" t="n">
-        <v>10462185</v>
+        <v>11961420</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST3135</t>
+          <t>CUST7157</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43624934</v>
+        <v>39985875</v>
       </c>
       <c r="E20" t="n">
-        <v>13852419</v>
+        <v>10717827</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7275</t>
+          <t>CUST9207</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40663245</v>
+        <v>42814408</v>
       </c>
       <c r="E21" t="n">
-        <v>10799103</v>
+        <v>13599063</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,25 +1572,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST8855</t>
+          <t>CUST4312</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41250143</v>
+        <v>40005219</v>
       </c>
       <c r="E22" t="n">
-        <v>13147074</v>
+        <v>13712984</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5823</t>
+          <t>CUST3617</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45196256</v>
+        <v>58680260</v>
       </c>
       <c r="E23" t="n">
-        <v>14086637</v>
+        <v>17033128</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST3421</t>
+          <t>CUST2321</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46833535</v>
+        <v>40854265</v>
       </c>
       <c r="E24" t="n">
-        <v>15037253</v>
+        <v>10743999</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST7275</t>
+          <t>CUST9207</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51756572</v>
+        <v>35955734</v>
       </c>
       <c r="E25" t="n">
-        <v>14307568</v>
+        <v>10095868</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST9503</t>
+          <t>CUST3899</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50447299</v>
+        <v>58432850</v>
       </c>
       <c r="E26" t="n">
-        <v>16452513</v>
+        <v>18871895</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST1998</t>
+          <t>CUST2343</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31808587</v>
+        <v>43360651</v>
       </c>
       <c r="E27" t="n">
-        <v>9922827</v>
+        <v>14047343</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST9389</t>
+          <t>CUST5010</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56782240</v>
+        <v>30608707</v>
       </c>
       <c r="E28" t="n">
-        <v>17960219</v>
+        <v>8678620</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST2775</t>
+          <t>CUST9119</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>32828916</v>
+        <v>34121964</v>
       </c>
       <c r="E29" t="n">
-        <v>8413688</v>
+        <v>10720064</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7275</t>
+          <t>CUST5465</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43934562</v>
+        <v>48350309</v>
       </c>
       <c r="E30" t="n">
-        <v>11942085</v>
+        <v>13671276</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST4450</t>
+          <t>CUST3675</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>41612621</v>
+        <v>33801098</v>
       </c>
       <c r="E31" t="n">
-        <v>12751197</v>
+        <v>8608731</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST5823</t>
+          <t>CUST2321</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>54391587</v>
+        <v>36042282</v>
       </c>
       <c r="E32" t="n">
-        <v>17527439</v>
+        <v>10662932</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-04-07</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST9001</t>
+          <t>CUST5010</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30730592</v>
+        <v>57293029</v>
       </c>
       <c r="E33" t="n">
-        <v>10490328</v>
+        <v>14894282</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST5782</t>
+          <t>CUST7254</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>38889216</v>
+        <v>53639505</v>
       </c>
       <c r="E34" t="n">
-        <v>12860763</v>
+        <v>15065329</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST7289</t>
+          <t>CUST8349</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>51460832</v>
+        <v>58176383</v>
       </c>
       <c r="E35" t="n">
-        <v>12872448</v>
+        <v>19681711</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST3135</t>
+          <t>CUST6821</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>53612097</v>
+        <v>38250092</v>
       </c>
       <c r="E36" t="n">
-        <v>15285981</v>
+        <v>10019319</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST2821</t>
+          <t>CUST7744</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>48826271</v>
+        <v>56641791</v>
       </c>
       <c r="E37" t="n">
-        <v>15649569</v>
+        <v>15650292</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST9657</t>
+          <t>CUST4922</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>47088891</v>
+        <v>30204839</v>
       </c>
       <c r="E38" t="n">
-        <v>14144087</v>
+        <v>10526097</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST9389</t>
+          <t>CUST8349</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>35745785</v>
+        <v>38199939</v>
       </c>
       <c r="E39" t="n">
-        <v>11124968</v>
+        <v>10081735</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST4235</t>
+          <t>CUST7070</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>31732270</v>
+        <v>36096402</v>
       </c>
       <c r="E40" t="n">
-        <v>9832884</v>
+        <v>10910550</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST3796</t>
+          <t>CUST7523</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>57966898</v>
+        <v>41178211</v>
       </c>
       <c r="E41" t="n">
-        <v>19445047</v>
+        <v>10501076</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST7289</t>
+          <t>CUST7434</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>46790204</v>
+        <v>43258586</v>
       </c>
       <c r="E42" t="n">
-        <v>13630637</v>
+        <v>12455055</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-04-09</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST3401</t>
+          <t>CUST6313</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>37543072</v>
+        <v>59895315</v>
       </c>
       <c r="E43" t="n">
-        <v>9892260</v>
+        <v>17901058</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST4183</t>
+          <t>CUST1443</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>59596329</v>
+        <v>56554789</v>
       </c>
       <c r="E44" t="n">
-        <v>17243512</v>
+        <v>16978561</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST2775</t>
+          <t>CUST6070</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>41581112</v>
+        <v>50566823</v>
       </c>
       <c r="E45" t="n">
-        <v>14359462</v>
+        <v>16020284</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST7254</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30417697</v>
+        <v>35431187</v>
       </c>
       <c r="E46" t="n">
-        <v>7825630</v>
+        <v>10336157</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST1730</t>
+          <t>CUST6070</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>56253851</v>
+        <v>45884156</v>
       </c>
       <c r="E47" t="n">
-        <v>14849473</v>
+        <v>15544573</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST9070</t>
+          <t>CUST6821</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>45523562</v>
+        <v>59828787</v>
       </c>
       <c r="E48" t="n">
-        <v>11636262</v>
+        <v>15919251</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3173</t>
+          <t>CUST2755</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>56387642</v>
+        <v>37405129</v>
       </c>
       <c r="E49" t="n">
-        <v>18660815</v>
+        <v>12272247</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST5003</t>
+          <t>CUST7744</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34119063</v>
+        <v>31407320</v>
       </c>
       <c r="E50" t="n">
-        <v>10761051</v>
+        <v>10849896</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST7478</t>
+          <t>CUST8486</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>44696239</v>
+        <v>36243690</v>
       </c>
       <c r="E51" t="n">
-        <v>12622124</v>
+        <v>9097818</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST6193</t>
+          <t>CUST3617</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>59927414</v>
+        <v>37197861</v>
       </c>
       <c r="E52" t="n">
-        <v>19185461</v>
+        <v>10788631</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST3135</t>
+          <t>CUST6070</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>54390118</v>
+        <v>38142398</v>
       </c>
       <c r="E53" t="n">
-        <v>15532284</v>
+        <v>9910421</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST7275</t>
+          <t>CUST4578</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>34186210</v>
+        <v>42217489</v>
       </c>
       <c r="E54" t="n">
-        <v>9751885</v>
+        <v>11702837</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST1998</t>
+          <t>CUST1443</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37130328</v>
+        <v>31051918</v>
       </c>
       <c r="E55" t="n">
-        <v>11653243</v>
+        <v>10653187</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST4991</t>
+          <t>CUST2805</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>58470345</v>
+        <v>36432286</v>
       </c>
       <c r="E56" t="n">
-        <v>18047282</v>
+        <v>9976538</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST1840</t>
+          <t>CUST6821</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>50287676</v>
+        <v>46366698</v>
       </c>
       <c r="E57" t="n">
-        <v>12910173</v>
+        <v>12394166</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST6140</t>
+          <t>CUST8349</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>32517153</v>
+        <v>46790228</v>
       </c>
       <c r="E58" t="n">
-        <v>8285232</v>
+        <v>14088335</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5823</t>
+          <t>CUST4955</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>43314058</v>
+        <v>57082998</v>
       </c>
       <c r="E59" t="n">
-        <v>12175918</v>
+        <v>18243948</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3607,12 +3607,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST2821</t>
+          <t>CUST3899</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>39023040</v>
+        <v>30785972</v>
       </c>
       <c r="E60" t="n">
-        <v>10057793</v>
+        <v>8845234</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST1998</t>
+          <t>CUST8682</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>53879220</v>
+        <v>58962154</v>
       </c>
       <c r="E61" t="n">
-        <v>18356394</v>
+        <v>18433656</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST6140</t>
+          <t>CUST7744</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>39328262</v>
+        <v>55375633</v>
       </c>
       <c r="E62" t="n">
-        <v>10088474</v>
+        <v>16198892</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST7096</t>
+          <t>CUST1533</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>56440968</v>
+        <v>34659841</v>
       </c>
       <c r="E63" t="n">
-        <v>16984356</v>
+        <v>10317907</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3840,25 +3840,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST3526</t>
+          <t>CUST6821</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>49492643</v>
+        <v>30289552</v>
       </c>
       <c r="E64" t="n">
-        <v>14214003</v>
+        <v>10084225</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3872,12 +3872,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST3173</t>
+          <t>CUST9234</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>51125892</v>
+        <v>48463222</v>
       </c>
       <c r="E65" t="n">
-        <v>15686731</v>
+        <v>13001714</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST3526</t>
+          <t>CUST3675</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>57379903</v>
+        <v>34085156</v>
       </c>
       <c r="E66" t="n">
-        <v>14433498</v>
+        <v>10165990</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST4658</t>
+          <t>CUST9234</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>51902550</v>
+        <v>36088160</v>
       </c>
       <c r="E67" t="n">
-        <v>15762182</v>
+        <v>11605130</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST3796</t>
+          <t>CUST5010</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>59296830</v>
+        <v>31839732</v>
       </c>
       <c r="E68" t="n">
-        <v>17569208</v>
+        <v>9259597</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST4991</t>
+          <t>CUST8682</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>40967304</v>
+        <v>36153291</v>
       </c>
       <c r="E69" t="n">
-        <v>11329756</v>
+        <v>9431045</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST5003</t>
+          <t>CUST9436</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>40990830</v>
+        <v>30893249</v>
       </c>
       <c r="E70" t="n">
-        <v>13748327</v>
+        <v>9446400</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST9657</t>
+          <t>CUST9615</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>52592389</v>
+        <v>36649829</v>
       </c>
       <c r="E71" t="n">
-        <v>17149012</v>
+        <v>11760842</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST3135</t>
+          <t>CUST2188</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>35939088</v>
+        <v>58627136</v>
       </c>
       <c r="E72" t="n">
-        <v>10136803</v>
+        <v>16705880</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,12 +4304,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST7275</t>
+          <t>CUST1443</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>53756214</v>
+        <v>37482048</v>
       </c>
       <c r="E73" t="n">
-        <v>16043072</v>
+        <v>12043708</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST8855</t>
+          <t>CUST7254</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>51379386</v>
+        <v>34246130</v>
       </c>
       <c r="E74" t="n">
-        <v>15696596</v>
+        <v>11090880</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST7289</t>
+          <t>CUST4312</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>56000414</v>
+        <v>41975412</v>
       </c>
       <c r="E75" t="n">
-        <v>17308942</v>
+        <v>11347895</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST2821</t>
+          <t>CUST9234</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>51792437</v>
+        <v>53447032</v>
       </c>
       <c r="E76" t="n">
-        <v>12997560</v>
+        <v>17828036</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST3401</t>
+          <t>CUST3409</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>34360372</v>
+        <v>39898617</v>
       </c>
       <c r="E77" t="n">
-        <v>10814657</v>
+        <v>13024161</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST5704</t>
+          <t>CUST4312</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>44659611</v>
+        <v>39109590</v>
       </c>
       <c r="E78" t="n">
-        <v>14774484</v>
+        <v>12583271</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST4991</t>
+          <t>CUST2755</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>39117456</v>
+        <v>30459121</v>
       </c>
       <c r="E79" t="n">
-        <v>13455095</v>
+        <v>8917252</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST3173</t>
+          <t>CUST9119</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>54785290</v>
+        <v>30470138</v>
       </c>
       <c r="E80" t="n">
-        <v>16836256</v>
+        <v>9115836</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST7289</t>
+          <t>CUST4922</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>41326577</v>
+        <v>54146117</v>
       </c>
       <c r="E81" t="n">
-        <v>10834259</v>
+        <v>16977288</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST7096</t>
+          <t>CUST2755</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>50896986</v>
+        <v>46190801</v>
       </c>
       <c r="E82" t="n">
-        <v>16623037</v>
+        <v>13121323</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST2821</t>
+          <t>CUST9615</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>52701016</v>
+        <v>55363167</v>
       </c>
       <c r="E83" t="n">
-        <v>17510874</v>
+        <v>15157992</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST7478</t>
+          <t>CUST1533</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>55802255</v>
+        <v>59738268</v>
       </c>
       <c r="E84" t="n">
-        <v>19128601</v>
+        <v>16614967</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4979,20 +4979,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST3646</t>
+          <t>CUST5010</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>44731994</v>
+        <v>53622868</v>
       </c>
       <c r="E85" t="n">
-        <v>12232669</v>
+        <v>15209847</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,12 +5006,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST3526</t>
+          <t>CUST9207</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>57381073</v>
+        <v>56782576</v>
       </c>
       <c r="E86" t="n">
-        <v>14511825</v>
+        <v>19799901</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,25 +5082,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST1659</t>
+          <t>CUST5338</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>57492336</v>
+        <v>54962702</v>
       </c>
       <c r="E87" t="n">
-        <v>18386114</v>
+        <v>18667380</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST8260</t>
+          <t>CUST2805</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>45178160</v>
+        <v>42283509</v>
       </c>
       <c r="E88" t="n">
-        <v>11704659</v>
+        <v>10584636</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,17 +5168,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST9312</t>
+          <t>CUST8486</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>39799477</v>
+        <v>55591910</v>
       </c>
       <c r="E89" t="n">
-        <v>11982396</v>
+        <v>16431249</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5227,12 +5227,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST8855</t>
+          <t>CUST9216</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>49519453</v>
+        <v>50135205</v>
       </c>
       <c r="E90" t="n">
-        <v>14399101</v>
+        <v>16116283</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST5003</t>
+          <t>CUST3617</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>56658498</v>
+        <v>41925990</v>
       </c>
       <c r="E91" t="n">
-        <v>16647067</v>
+        <v>11017599</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5352,25 +5352,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-04-09</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST9657</t>
+          <t>CUST2321</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>53900706</v>
+        <v>50287355</v>
       </c>
       <c r="E92" t="n">
-        <v>15179672</v>
+        <v>14709175</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST9001</t>
+          <t>CUST4233</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>43339978</v>
+        <v>57468427</v>
       </c>
       <c r="E93" t="n">
-        <v>14425939</v>
+        <v>19124853</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,12 +5438,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5460,29 +5460,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST3646</t>
+          <t>CUST6821</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>39556847</v>
+        <v>32237300</v>
       </c>
       <c r="E94" t="n">
-        <v>11438126</v>
+        <v>9512352</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST7552</t>
+          <t>CUST5010</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>57387061</v>
+        <v>46954835</v>
       </c>
       <c r="E95" t="n">
-        <v>19003775</v>
+        <v>12965607</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST4450</t>
+          <t>CUST4233</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>41139440</v>
+        <v>41673047</v>
       </c>
       <c r="E96" t="n">
-        <v>12784489</v>
+        <v>14524166</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5622,29 +5622,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST4553</t>
+          <t>CUST7254</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>51177959</v>
+        <v>50562846</v>
       </c>
       <c r="E97" t="n">
-        <v>13708112</v>
+        <v>17195028</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST2462</t>
+          <t>CUST4922</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>52943325</v>
+        <v>41278579</v>
       </c>
       <c r="E98" t="n">
-        <v>16525685</v>
+        <v>11650125</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5708,17 +5708,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST4450</t>
+          <t>CUST3422</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>47195659</v>
+        <v>53195076</v>
       </c>
       <c r="E99" t="n">
-        <v>15825337</v>
+        <v>16481235</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5762,12 +5762,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -5784,29 +5784,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST1462</t>
+          <t>CUST8349</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>59808101</v>
+        <v>53645856</v>
       </c>
       <c r="E100" t="n">
-        <v>16600959</v>
+        <v>15162234</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5816,17 +5816,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5838,29 +5838,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST6140</t>
+          <t>CUST3899</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>31979564</v>
+        <v>41425938</v>
       </c>
       <c r="E101" t="n">
-        <v>8028692</v>
+        <v>11511022</v>
       </c>
       <c r="F101" t="n">
         <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5875,12 +5875,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST3173</t>
+          <t>CUST8349</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>35444279</v>
+        <v>57371127</v>
       </c>
       <c r="E102" t="n">
-        <v>11689654</v>
+        <v>15072368</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5924,17 +5924,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5946,29 +5946,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST2775</t>
+          <t>CUST8682</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>54972604</v>
+        <v>43737760</v>
       </c>
       <c r="E103" t="n">
-        <v>16489859</v>
+        <v>11638588</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5978,12 +5978,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6000,29 +6000,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST7820</t>
+          <t>CUST6313</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>32304240</v>
+        <v>31138375</v>
       </c>
       <c r="E104" t="n">
-        <v>8181031</v>
+        <v>8338613</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6032,17 +6032,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST1730</t>
+          <t>CUST6141</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>45031415</v>
+        <v>53442003</v>
       </c>
       <c r="E105" t="n">
-        <v>14938906</v>
+        <v>16238623</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6086,17 +6086,17 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST8260</t>
+          <t>CUST1533</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>41458401</v>
+        <v>58744316</v>
       </c>
       <c r="E106" t="n">
-        <v>11504693</v>
+        <v>20251521</v>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST8804</t>
+          <t>CUST2343</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>49275208</v>
+        <v>42790338</v>
       </c>
       <c r="E107" t="n">
-        <v>14799722</v>
+        <v>14126433</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6194,17 +6194,17 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6216,29 +6216,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-04-27</t>
+          <t>2026-04-02</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST7275</t>
+          <t>CUST6141</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>36643397</v>
+        <v>59357945</v>
       </c>
       <c r="E108" t="n">
-        <v>9366325</v>
+        <v>15572969</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6270,29 +6270,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST9657</t>
+          <t>CUST8486</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>37136585</v>
+        <v>44108618</v>
       </c>
       <c r="E109" t="n">
-        <v>11229831</v>
+        <v>12504529</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6302,17 +6302,17 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST3401</t>
+          <t>CUST9234</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>37725257</v>
+        <v>43776483</v>
       </c>
       <c r="E110" t="n">
-        <v>11803125</v>
+        <v>14522665</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,17 +6356,17 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-04-30</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST6653</t>
+          <t>CUST8415</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>46362017</v>
+        <v>37432887</v>
       </c>
       <c r="E111" t="n">
-        <v>13229496</v>
+        <v>12175172</v>
       </c>
       <c r="F111" t="n">
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -6432,29 +6432,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST3401</t>
+          <t>CUST7254</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>56032333</v>
+        <v>45062021</v>
       </c>
       <c r="E112" t="n">
-        <v>15789843</v>
+        <v>12902944</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6464,17 +6464,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6486,25 +6486,25 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST3423</t>
+          <t>CUST9207</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>43284622</v>
+        <v>30973761</v>
       </c>
       <c r="E113" t="n">
-        <v>14812061</v>
+        <v>8860015</v>
       </c>
       <c r="F113" t="n">
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -6518,17 +6518,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST3796</t>
+          <t>CUST9615</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>33905990</v>
+        <v>59105280</v>
       </c>
       <c r="E114" t="n">
-        <v>8683160</v>
+        <v>19274179</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6594,29 +6594,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST1659</t>
+          <t>CUST2321</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>36574178</v>
+        <v>38298442</v>
       </c>
       <c r="E115" t="n">
-        <v>11136782</v>
+        <v>12255095</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6626,17 +6626,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6648,29 +6648,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST3401</t>
+          <t>CUST7139</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>45337331</v>
+        <v>49538093</v>
       </c>
       <c r="E116" t="n">
-        <v>13922647</v>
+        <v>15339541</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -6702,25 +6702,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-28</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST5782</t>
+          <t>CUST7070</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>37325534</v>
+        <v>53464490</v>
       </c>
       <c r="E117" t="n">
-        <v>11583234</v>
+        <v>13869936</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -6734,17 +6734,17 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST7552</t>
+          <t>CUST2524</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>51400484</v>
+        <v>54659104</v>
       </c>
       <c r="E118" t="n">
-        <v>17345086</v>
+        <v>16250621</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6810,29 +6810,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST3423</t>
+          <t>CUST9145</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>35825509</v>
+        <v>50372570</v>
       </c>
       <c r="E119" t="n">
-        <v>10052051</v>
+        <v>15930102</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST2462</t>
+          <t>CUST3409</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>33695583</v>
+        <v>53263965</v>
       </c>
       <c r="E120" t="n">
-        <v>10135581</v>
+        <v>14582202</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6918,29 +6918,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST7820</t>
+          <t>CUST8478</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>40436395</v>
+        <v>56863695</v>
       </c>
       <c r="E121" t="n">
-        <v>13671031</v>
+        <v>15268279</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6950,17 +6950,17 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>10412693</v>
+        <v>22159608</v>
       </c>
       <c r="E2" t="n">
-        <v>2227547</v>
+        <v>4136995</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3535510</v>
+        <v>3133362</v>
       </c>
       <c r="E3" t="n">
-        <v>599022</v>
+        <v>352483</v>
       </c>
     </row>
     <row r="4">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>8246888</v>
+        <v>9426056</v>
       </c>
       <c r="E4" t="n">
-        <v>868206</v>
+        <v>2807076</v>
       </c>
     </row>
     <row r="5">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>11698140</v>
+        <v>11119062</v>
       </c>
       <c r="E7" t="n">
-        <v>2087903</v>
+        <v>1580908</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.5</v>
+        <v>98.7</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>12616694</v>
+        <v>14835699</v>
       </c>
       <c r="E8" t="n">
-        <v>3054340</v>
+        <v>3073393</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>9724851</v>
+        <v>5480344</v>
       </c>
       <c r="E9" t="n">
-        <v>1478436</v>
+        <v>1097462</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.3</v>
+        <v>90.7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>18450913</v>
+        <v>10056741</v>
       </c>
       <c r="E10" t="n">
-        <v>2856683</v>
+        <v>1038617</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>10422719</v>
+        <v>6601631</v>
       </c>
       <c r="E11" t="n">
-        <v>2894301</v>
+        <v>755700</v>
       </c>
     </row>
     <row r="12">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8894296</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1021687</v>
       </c>
     </row>
     <row r="13">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.7</v>
+        <v>92.5</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>14687085</v>
+        <v>9833764</v>
       </c>
       <c r="E14" t="n">
-        <v>1725622</v>
+        <v>1553926</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.5</v>
+        <v>90.8</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>17986816</v>
+        <v>14065514</v>
       </c>
       <c r="E15" t="n">
-        <v>2397417</v>
+        <v>3387182</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>11694413</v>
+        <v>6589486</v>
       </c>
       <c r="E16" t="n">
-        <v>2328189</v>
+        <v>1224057</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98</v>
+        <v>99.2</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>10432088</v>
+        <v>9412606</v>
       </c>
       <c r="E17" t="n">
-        <v>1561737</v>
+        <v>1308545</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.5</v>
+        <v>96</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>4479873</v>
+        <v>4814359</v>
       </c>
       <c r="E18" t="n">
-        <v>508289</v>
+        <v>991835</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9915343</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2360155</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>8476414</v>
+        <v>3466411</v>
       </c>
       <c r="E20" t="n">
-        <v>2220269</v>
+        <v>797887</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>9248757</v>
+        <v>11887304</v>
       </c>
       <c r="E21" t="n">
-        <v>1521536</v>
+        <v>1698886</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.2</v>
+        <v>96</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>14662041</v>
+        <v>4881273</v>
       </c>
       <c r="E22" t="n">
-        <v>1686919</v>
+        <v>1038074</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7348446</v>
+        <v>3665928</v>
       </c>
       <c r="E23" t="n">
-        <v>2151069</v>
+        <v>453370</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>21525086</v>
+        <v>19440321</v>
       </c>
       <c r="E24" t="n">
-        <v>5120439</v>
+        <v>2888764</v>
       </c>
     </row>
     <row r="25">
@@ -7454,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>8945086</v>
+        <v>6364256</v>
       </c>
       <c r="E25" t="n">
-        <v>1065128</v>
+        <v>836921</v>
       </c>
     </row>
     <row r="26">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3083772</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>397766</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5491269</v>
+        <v>8168552</v>
       </c>
       <c r="E28" t="n">
-        <v>1644485</v>
+        <v>2255738</v>
       </c>
     </row>
     <row r="29">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>13312101</v>
+        <v>19702306</v>
       </c>
       <c r="E29" t="n">
-        <v>2372296</v>
+        <v>3431216</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.5</v>
+        <v>90.2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>6197119</v>
+        <v>9348953</v>
       </c>
       <c r="E30" t="n">
-        <v>1740101</v>
+        <v>2025102</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.5</v>
+        <v>98.2</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>9090307</v>
+        <v>13547577</v>
       </c>
       <c r="E31" t="n">
-        <v>2536369</v>
+        <v>3416280</v>
       </c>
     </row>
   </sheetData>
